--- a/biology/Zoologie/Barbican_du_miombo/Barbican_du_miombo.xlsx
+++ b/biology/Zoologie/Barbican_du_miombo/Barbican_du_miombo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricholaema frontata
 Le Barbican du miombo (Tricholaema frontata) est une espèce d'oiseaux de la famille des Lybiidae, dont l'aire de répartition s'étend sur la République démocratique du Congo, l'Angola, la Zambie, le Malawi et la Tanzanie.
